--- a/data/mdr24_islandcount.xlsx
+++ b/data/mdr24_islandcount.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marina\Desktop\Repositories\MDRgull24\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marina\Desktop\MDR 2024\gulls24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CE87D72-4EA7-4ADF-8781-75A867262070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B57BCB2-51CD-4089-B75E-3C27E7AEFB45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5651" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5699" uniqueCount="196">
   <si>
     <t>date</t>
   </si>
@@ -607,6 +607,18 @@
   <si>
     <t>big raft on Columbia Ledge, hard to ID HERG vs. GBBG</t>
   </si>
+  <si>
+    <t>10 meters</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>on-island count only due to fog</t>
+  </si>
+  <si>
+    <t>present but not counted carefully (around 10)</t>
+  </si>
 </sst>
 </file>
 
@@ -952,11 +964,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92B2A866-8D03-4222-8882-6A74AD6F0C79}">
-  <dimension ref="A1:K82"/>
+  <dimension ref="A1:K83"/>
   <sheetViews>
     <sheetView zoomScale="103" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J83" sqref="J83"/>
+      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K84" sqref="K84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -3377,7 +3389,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A81" s="2">
         <v>45528</v>
       </c>
@@ -3409,7 +3421,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A82" s="2">
         <v>45528</v>
       </c>
@@ -3439,6 +3451,41 @@
       </c>
       <c r="J82" t="s">
         <v>188</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A83" s="2">
+        <v>45531</v>
+      </c>
+      <c r="B83" s="4">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C83" t="s">
+        <v>143</v>
+      </c>
+      <c r="D83" t="s">
+        <v>192</v>
+      </c>
+      <c r="E83">
+        <v>2</v>
+      </c>
+      <c r="F83" s="3">
+        <v>1</v>
+      </c>
+      <c r="G83" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="H83" t="s">
+        <v>41</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+      <c r="J83" t="s">
+        <v>181</v>
+      </c>
+      <c r="K83" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -3449,11 +3496,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1038"/>
+  <dimension ref="A1:H1046"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="97" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A796" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F803" sqref="F803"/>
+      <pane ySplit="1" topLeftCell="A1035" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H1047" sqref="H1047"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -27461,6 +27508,193 @@
       </c>
       <c r="G1038">
         <v>2350</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A1039" s="2">
+        <v>45531</v>
+      </c>
+      <c r="B1039" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1039" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1039" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1039" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1039" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1039">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A1040" s="2">
+        <v>45531</v>
+      </c>
+      <c r="B1040" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1040" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1040" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1040" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1040" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1040">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A1041" s="2">
+        <v>45531</v>
+      </c>
+      <c r="B1041" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1041" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1041" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1041" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1041" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1041">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A1042" s="2">
+        <v>45531</v>
+      </c>
+      <c r="B1042" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1042" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1042" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1042" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1042" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1042">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A1043" s="2">
+        <v>45531</v>
+      </c>
+      <c r="B1043" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1043" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1043" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1043" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1043" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1043">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A1044" s="2">
+        <v>45531</v>
+      </c>
+      <c r="B1044" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1044" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1044" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1044" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1044" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1044">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A1045" s="2">
+        <v>45531</v>
+      </c>
+      <c r="B1045" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1045" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1045" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1045" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1045" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1045">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A1046" s="2">
+        <v>45531</v>
+      </c>
+      <c r="B1046" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1046" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1046" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1046" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1046" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1046" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1046" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>
